--- a/test.xlsx
+++ b/test.xlsx
@@ -1,29 +1,615 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="37395" windowHeight="17955"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="knowledgebase_cron_script_param" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">knowledgebase_cron_script_param!A1:H87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">knowledgebase_cron_script_param!$A$1:$H$88</definedName>
+  </definedNames>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>kod_script</t>
+  </si>
+  <si>
+    <t>order_var</t>
+  </si>
+  <si>
+    <t>type_var</t>
+  </si>
+  <si>
+    <t>name_var</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>default_var</t>
+  </si>
+  <si>
+    <t>rest_get</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>sheetSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">массив из &amp;#xD;&amp;#xA;interface TSetting {&amp;#xD;&amp;#xA;  /**номер или имя листа, нумерация начинается с 1 */&amp;#xD;&amp;#xA;  sheet: string | number;&amp;#xD;&amp;#xA;  /**заполенние значений в ячейках */&amp;#xD;&amp;#xA;  cellValue: Record&lt;string, string&gt;;&amp;#xD;&amp;#xA;  /** позиция в которую начинаем вставку данных */&amp;#xD;&amp;#xA;  startPosition: { x: number; y: number };&amp;#xD;&amp;#xA;  /**нумерация строк */&amp;#xD;&amp;#xA;  numeration?: number;&amp;#xD;&amp;#xA;  formatting: ConditionalFormattingOptions[];&amp;#xD;&amp;#xA;  ajax: { sqlname: string; params: Record&lt;string, string&gt; };&amp;#xD;&amp;#xA;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"sheet":1,"numeration":1,"ajax":{"sqlname":"getRZA01","params":{}},"startPosition":{"x":2,"y":3},"cellValue":{"B1":"Скрипты(Дата Выгрузки DD/MM/YYYY)\\n1. 05v20 - буферная таблица mdd05\\n2. 05v68 - разметка new\\n3. 07v3 результат по разметке\\n4. Статистика по документам ЕКС_для_excel_полный_список v6","B2":"на кого\\\\от кого(Документы за DD/MM/YYYY)"},"formatting":[{"ref":"F3:R","rules":[{"type":"cellIs","operator":"greaterThan","formulae":["=1000000"],"priority":1,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11FF8888"}},"font":{"bold":true}}},{"type":"cellIs","operator":"greaterThan","formulae":["=750000"],"priority":2,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11F2A28A"}},"font":{"bold":true}}},{"type":"cellIs","operator":"greaterThan","formulae":["=500000"],"priority":3,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11FCB2AA"}}}},{"type":"cellIs","operator":"greaterThan","formulae":["=250000"],"priority":4,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11FFC2AA"}}}},{"type":"cellIs","operator":"greaterThan","formulae":["=100000"],"priority":5,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11FFD29A"}}}},{"type":"cellIs","operator":"between","formulae":["=1","=100000"],"priority":1,"style":{"fill":{"pattern":"solid","type":"pattern","bgColor":{"argb":"11EEEEEE"}}}}]}]}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"sqlname":{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.result":"=:json","sql_query":"!~*:DELETE ","sql_query ":"!~*:UPDATE ","ssq.sql_query":"!~*:INSERT ","test":[{"sql_query":"~*:SELECT "},{"sql_query":"~*:WITH "}]}},"operator":["equal","greaterThan","lessThan","between","containsText","containsBlanks","notContainsBlanks","containsErrors","notContainsErrors"]}</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>outputFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя файла, который будет создан</t>
+  </si>
+  <si>
+    <t>"newFile.xlsx"</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>templateFileXLSXPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путь к шаблону из которого будет создан файл</t>
+  </si>
+  <si>
+    <t>"/home/eks_prom/templateXLSX/templateModule.xlsx"</t>
+  </si>
+  <si>
+    <t>uniqueFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имена полей через запятую, которые уникальные в запросе, будут проверяться для вставки в таблицу</t>
+  </si>
+  <si>
+    <t>"id"</t>
+  </si>
+  <si>
+    <t>ticket_time_fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле, содержащее время отправки тикета, от которого будет считаться отклонение</t>
+  </si>
+  <si>
+    <t>"time_send_ticket"</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>saveToReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранять результат выгрузки в раздел "Отчеты" (/reports)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>maxMailViewRows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальное количество записей, которое будет выводиться в письме</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>customFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительные фильтры для таблиц, объект JSON, где каждый ключ, это имя таблицы, значение, объект из полей со значениями, которые соответствуют таблице</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>timeField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поле с временем создания, по которому будет проверяться условие</t>
+  </si>
+  <si>
+    <t>"date_add"</t>
+  </si>
+  <si>
+    <t>dayHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество дней, сколько должны храниться данные</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>tableList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">список таблиц для очистки</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{"fields":["concat(schemaname,'.',tablename):value","concat(schemaname,'.',tablename):text"],"from":"pg_catalog.pg_tables","sort":["schemaname","tablename"],"tuz":0}</t>
+  </si>
+  <si>
+    <t>maxIDCheckWhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">условие, которое будет добавляться для получения максимального идентификатора из таблицы назначения</t>
+  </si>
+  <si>
+    <t>"1=1"</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя таблицы</t>
+  </si>
+  <si>
+    <t>{"fields":["tablename:value","tablename:text"],"from":"pg_catalog.pg_tables","sort":["tablename"],"tuz":0}</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя схемы</t>
+  </si>
+  <si>
+    <t>{"fields":["nspname:value","nspname:text"],"from":"pg_catalog.pg_namespace","sort":["nspname"]}</t>
+  </si>
+  <si>
+    <t>paramsSql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">параметры для скрипта</t>
+  </si>
+  <si>
+    <t>getSQLName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя запроса для выбора данных</t>
+  </si>
+  <si>
+    <t>{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.active":true}}</t>
+  </si>
+  <si>
+    <t>monitoring_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">таблица назначения тикетов зачисления</t>
+  </si>
+  <si>
+    <t>"monitoring.fp_zachislenie_servces"</t>
+  </si>
+  <si>
+    <t>proccessRun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название задания для выполнения скрипта (варианты для питона - python, py, python3)</t>
+  </si>
+  <si>
+    <t>"python"</t>
+  </si>
+  <si>
+    <t>isUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">признак создания запроса на обновление (если = false будет INSERT)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>extendsFields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поля добавляемые в обновление запроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">",date_update = now()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">размер пачки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя таблицы в схеме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">схема для расположения таблицы</t>
+  </si>
+  <si>
+    <t>ddlQueryAjax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">запрос-пустышка, в котором будут генерироваться DDL запросы INSERT / UPDATE</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>fishWhereParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">параметр для замены в рыбе-запросе RegExp(fishWhereParam + " in \\([\\w\\s\\n\\r,]+\\)")&amp;#xA;По умолчанию поле всегда типа строка, если хотим вставлять числа, указываем плюсик + перед полем (внутри двойных кавычек)</t>
+  </si>
+  <si>
+    <t>fishQueryAjax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рыба для запроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">параметры запроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получаем список идентификаторов</t>
+  </si>
+  <si>
+    <t>extendMailsFromAjax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбор списка адресов для рассылки, добавляется в начало списка рассылки "Кому". Запрос должен возвращать поле email_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.result":"=:json","sql_query":"!~*:DELETE ","sql_query ":"!~*:UPDATE ","ssq.sql_query":"!~*:INSERT ","sql_query@2":"~:email_to","test":[{"sql_query":"~*:SELECT "},{"sql_query":"~*:WITH "}]}}</t>
+  </si>
+  <si>
+    <t>logCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ограничение циклов логирования</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>paramsThirdQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры, передаваемые в 3 скрипт из первого и второго, где начало переменной имя скрипта, точка имя поля. Если префикса у поля нету, значит это будет значение для поля в виде текстовой строки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&amp;#xA;    "sm_contact_name": "secondAjaxName.CONTACT_NAME",&amp;#xA;    "sm_full_name": "secondAjaxName.FULL_NAME",&amp;#xA;    "login": "firstAjaxName.login",&amp;#xA;  }</t>
+  </si>
+  <si>
+    <t>thirdQueryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя скрипта на изменение данных, выполняется сразу после получения данных второго скрипта</t>
+  </si>
+  <si>
+    <t>"udatePomniUsers"</t>
+  </si>
+  <si>
+    <t>{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.active":true,"ssq.result":"=:json","sql_name":"!~:1a_newAjax"}}</t>
+  </si>
+  <si>
+    <t>paramsSecondQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подставляемые значения из результатов 1 скрипта во второй, где ключ это название параметра 2 запроса, а значение названия поля из первого запроса (будет подстановлено значение из каждой строки)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "tab_num": "tabnum" }</t>
+  </si>
+  <si>
+    <t>secondQueryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Второй скрипт, который будет выполнен для каждой строки первого скрипта со значениями из 1-го</t>
+  </si>
+  <si>
+    <t>"getSMuserByTabNum"</t>
+  </si>
+  <si>
+    <t>paramsFirstQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры для вставки в первый скрипт</t>
+  </si>
+  <si>
+    <t>firstQueryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первый запрос по которому мы получаем данные</t>
+  </si>
+  <si>
+    <t>"getAllowUsers"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">размер пачки, количество строк которые разбивают запрос на циклы, чем больше число, тем быстрее происходит обработка. Уменьшать имеет смысл если получаем ошибку размера буфера. Нельзя делать больше 1000</t>
+  </si>
+  <si>
+    <t>eksQueryAjax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скрипт для запроса в ЕКС (указывать драйвер в нем)</t>
+  </si>
+  <si>
+    <t>"getCurDateREP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст письма, располагающийся перед данными</t>
+  </si>
+  <si>
+    <t>noDataSend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправлять письмо, если результат выполнения запроса оказался пустым</t>
+  </si>
+  <si>
+    <t>textAfter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст письма, располагающийся после данных</t>
+  </si>
+  <si>
+    <t>mailaddress</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреса рассылки в формате ключ:значение, где to: кому, bc: скрытая копия</t>
+  </si>
+  <si>
+    <t>sqlParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные параметры для запросов в формате json в формате {all | "имя ajax": {параметры}, ..} (где all -  параметры для всех запросов, если у каждого из запросов не указано иное). &amp;#xA;Поддерживаются следующие параметры: properties, view, diagram, name.  &amp;#xA;Параметр properties - входные параметры для скрипта. &amp;#xA;Параметр view может принимать значения: "table", "diagram". По умолчанию table. &amp;#xA;Параметр diagram может принимать значения: "column", "bar", "line", "area", "radar", "scatter", "pie", "accumBar", "accumLine". По умолчанию line.&amp;#xA;Параметр name замещает стандартное имя и подпись к диаграмме.&amp;#xA;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"view":["table", "diagram"],"diagram":["column", "bar", "line", "area", "radar", "scatter", "pie", "accumBar", "accumLine"]}</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема письма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Выгрузка с несколькими документами"</t>
+  </si>
+  <si>
+    <t>sqlNameList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Список имен Ajax-запросов, имеющихся в БД</t>
+  </si>
+  <si>
+    <t>["getDiagramBySector","dynamicAuditBz","getFullCIInfoLocal"]</t>
+  </si>
+  <si>
+    <t>mailMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Письмо для отправки</t>
+  </si>
+  <si>
+    <t>{"to":"","cc":"Morivets.V.V@omega.sbrf.ru"}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры, передаваемые в запрос, объект с полями ключ:значение</t>
+  </si>
+  <si>
+    <t>sqlName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имя запроса из ajax запросов</t>
+  </si>
+  <si>
+    <t>"getTerms"</t>
+  </si>
+  <si>
+    <t>{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.result":"=:json","data_base":"orasm","sql_name":"!~:1a_newAjax"}}</t>
+  </si>
+  <si>
+    <t>jenkinsJob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь к джобе Jenkins</t>
+  </si>
+  <si>
+    <t>"/pprb/job/SUPDB_CI03673938/job/AS_POMNI/job/NEW_JIRA/build"</t>
+  </si>
+  <si>
+    <t>user_login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логин пользователя под которым будет выполняться задание в Jenkins</t>
+  </si>
+  <si>
+    <t>{"fields":["login:value","login:text"],"from":"knowledgebase.bz_users","sort":["-1"],"filter":{"tabnum":"&lt;:0"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст в письме, в начале письме, до таблицы с данными</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст в письме, после таблицы с данными</t>
+  </si>
+  <si>
+    <t>addres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреса рассылки, объект с полями ключ:значение. где to:кому, cc:копия, bc: скрытая копия</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заголовок письма</t>
+  </si>
+  <si>
+    <t>"Проверка"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя сохраненного в БД Ajax-запроса. Должен возвращать данные с &amp;#xA;interface IChartQuery {&amp;#xA;  label: string;&amp;#xA;  period: string;&amp;#xA;  count: string;&amp;#xA;}</t>
+  </si>
+  <si>
+    <t>"getIncidentDynamics"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"fields":["ssq.sql_name:value","ssq.sql_name:text"],"from":["sys_sql_query:ssq"],"sort":["ssq.sql_name"],"filter":{"ssq.result":"=:json","sql_query":"!~*:DELETE ","sql_query ":"!~*:UPDATE ","ssq.sql_query":"!~*:INSERT ","test":[{"sql_query":"~*:SELECT "},{"sql_query":"~*:WITH "}]}}</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь до выполняемого скрипта python</t>
+  </si>
+  <si>
+    <t>htmlTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Генерация таблицы в письме</t>
+  </si>
+  <si>
+    <t>addToAttach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкладывать результат в виде XLSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправлять письмо, если результат запроса пустой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шапка в теле письма до таблицы, можно использовать HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый день&lt;br&gt;&amp;#xD;&amp;#xA;  По ИТ-услугe были выявлены подключения на промышленные сервера, через PAM.&lt;br&gt;&amp;#xD;&amp;#xA;  Авторизация была выполнена с правами доступа на запись или тип подключения не определён, во время внедрения релизов по данной услуги.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреса для рассылки, могут быть заменены из динамических параметров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Morivets.V.V@omega.sbrf.ru", cc: "Morivets.V.V@omega.sbrf.ru" }</t>
+  </si>
+  <si>
+    <t>dynamicMailParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры, передаваемые в 3 скрипт из 1 и второго, где начало переменной first. и second.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ addresTo: "LIST", name: "CI_NAME" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Отклонения Autonomus Operations"</t>
+  </si>
+  <si>
+    <t>slaveParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ci_name_id" }</t>
+  </si>
+  <si>
+    <t>slaveSQLName</t>
+  </si>
+  <si>
+    <t>"getAutonomusOperationsInfo"</t>
+  </si>
+  <si>
+    <t>basicParams</t>
+  </si>
+  <si>
+    <t>basicSQLName</t>
+  </si>
+  <si>
+    <t>"getAutonomusOperationList"</t>
+  </si>
+  <si>
+    <t>paramsUpdateQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{&amp;#xA;    sm_contact_name: "second.CONTACT_NAME",&amp;#xA;    sm_full_name: "second.FULL_NAME",&amp;#xA;    login: "first.login",&amp;#xA;  }</t>
+  </si>
+  <si>
+    <t>updateQueryName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ tab_num: "tabnum" }</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст в письме, в начале письме, до таблицы с данными&amp;#xA;С 27 февраля 2024г добавлены вычисляемые параметры&amp;#xA;${currentDate} = текущая дата на момент выгрузки&amp;#xA;${yesterDate} = вчерашняя дата на момент выгрузки&amp;#xA;${currentDate-7} = так же можно указать разбежку от текущей даты, где указываем количество вычитаемых дней от 1 до 7 из текущей даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст в письме, после таблицы с данными&amp;#xA;С 27 февраля 2024г добавлены вычисляемые параметры&amp;#xA;${currentDate} = текущая дата на момент выгрузки&amp;#xA;${yesterDate} = вчерашняя дата на момент выгрузки&amp;#xA;${currentDate-7} = так же можно указать разбежку от текущей даты, где указываем количество вычитаемых дней от 1 до 7 из текущей даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адреса рассылки, поле с автоматическим парсингом email адресов, можно вставить строку, содежащую в себе адреса, которые будут изъяты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заголовок письма. &amp;#xA;С 27 февраля 2024г добавлены вычисляемые параметры&amp;#xA;${currentDate} = текущая дата на момент выгрузки&amp;#xA;${yesterDate} = вчерашняя дата на момент выгрузки&amp;#xA;${currentDate-7} = так же можно указать разбежку от текущей даты, где указываем количество вычитаемых дней от 1 до 7 из текущей даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя сохраненного в БД Ajax-запроса</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип графика</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,21 +623,22 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -63,10 +650,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -104,18 +691,18 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -138,19 +725,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
+        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
+        <a:font script="Hans" typeface="е®‹дЅ“"/>
+        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -173,10 +759,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,44 +933,2570 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto"/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto"/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+</a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="5" width="20.83203125"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="255.625"/>
+    <col customWidth="1" min="7" max="8" width="20.83203125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <v>169</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>167</v>
+      </c>
+      <c r="B5">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>163</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>158</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>157</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>154</v>
+      </c>
+      <c r="B9">
+        <v>165</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>152</v>
+      </c>
+      <c r="B10">
+        <v>165</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>165</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>160</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>126</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>107</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>157</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33">
+        <v>157</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>157</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>157</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>96</v>
+      </c>
+      <c r="B36">
+        <v>157</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>95</v>
+      </c>
+      <c r="B37">
+        <v>157</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>94</v>
+      </c>
+      <c r="B38">
+        <v>157</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>155</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>78</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <v>155</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>155</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>155</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>155</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>73</v>
+      </c>
+      <c r="B49">
+        <v>155</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>154</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>71</v>
+      </c>
+      <c r="B51">
+        <v>154</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>70</v>
+      </c>
+      <c r="B52">
+        <v>154</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1">
+        <v>154</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>154</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>153</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <v>153</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>153</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>153</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>153</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>153</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>53</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>35</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" t="s">
+        <v>169</v>
+      </c>
+      <c r="G67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>35</v>
+      </c>
+      <c r="B69">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" t="s">
+        <v>174</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>33</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
+      <c r="H79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>187</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" t="s">
+        <v>190</v>
+      </c>
+      <c r="G86" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" t="s">
+        <v>141</v>
+      </c>
+      <c r="H87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>200</v>
+      </c>
+      <c r="B88">
+        <v>153</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+  </sheetData>
+  <autoFilter ref="A1:H88"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>